--- a/shared_src/machine_learning/data/gridsearch_dewetting_NN.xlsx
+++ b/shared_src/machine_learning/data/gridsearch_dewetting_NN.xlsx
@@ -46,19 +46,19 @@
     <t>f1_class3</t>
   </si>
   <si>
-    <t>(12, 10, 5, 4)</t>
+    <t>(12, 10, 8, 4)</t>
+  </si>
+  <si>
+    <t>(12, 8, 5, 4)</t>
+  </si>
+  <si>
+    <t>(12, 5, 8, 4)</t>
   </si>
   <si>
     <t>(12, 8, 8, 4)</t>
   </si>
   <si>
-    <t>(12, 8, 5, 4)</t>
-  </si>
-  <si>
-    <t>(12, 10, 8, 4)</t>
-  </si>
-  <si>
-    <t>(12, 5, 8, 4)</t>
+    <t>(12, 10, 5, 4)</t>
   </si>
   <si>
     <t>(12, 5, 5, 4)</t>
@@ -67,16 +67,16 @@
     <t>na</t>
   </si>
   <si>
+    <t>l1-4</t>
+  </si>
+  <si>
     <t>l2-4</t>
   </si>
   <si>
-    <t>l1-4</t>
+    <t>l1-3</t>
   </si>
   <si>
     <t>l2-3</t>
-  </si>
-  <si>
-    <t>l1-3</t>
   </si>
 </sst>
 </file>
@@ -474,13 +474,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9875</v>
+        <v>0.9732142865657807</v>
       </c>
       <c r="C2">
-        <v>0.0375</v>
+        <v>0.05372003014766685</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -489,141 +489,141 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G2">
-        <v>0.9659090909090909</v>
+        <v>0.9489664082687338</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J2">
-        <v>0.9545454545454545</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>0.975</v>
+        <v>0.9732142865657807</v>
       </c>
       <c r="C3">
-        <v>0.075</v>
+        <v>0.05372003014766685</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G3">
-        <v>0.9659090909090909</v>
+        <v>0.9681165277950503</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.9090909090909091</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J3">
         <v>0.9545454545454545</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>0.9708333313465118</v>
+        <v>0.9732142865657807</v>
       </c>
       <c r="C4">
-        <v>0.05907269995276396</v>
+        <v>0.05372003014766685</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G4">
-        <v>0.9659090909090909</v>
+        <v>0.9195408103149354</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I4">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J4">
-        <v>0.9545454545454545</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9756097560975611</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B5">
-        <v>0.9708333313465118</v>
+        <v>0.9732142865657807</v>
       </c>
       <c r="C5">
-        <v>0.05907269995276396</v>
+        <v>0.05372003014766685</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G5">
-        <v>0.9659090909090909</v>
+        <v>0.9195408103149354</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I5">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J5">
-        <v>0.9545454545454545</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9756097560975611</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B6">
-        <v>0.9607142865657806</v>
+        <v>0.9732142865657807</v>
       </c>
       <c r="C6">
-        <v>0.08214285606923315</v>
+        <v>0.05372003014766685</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -632,30 +632,30 @@
         <v>500</v>
       </c>
       <c r="G6">
-        <v>0.9421992481203008</v>
+        <v>0.9195408103149354</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I6">
-        <v>0.9166666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J6">
-        <v>0.9047619047619049</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K6">
-        <v>0.9473684210526315</v>
+        <v>0.9756097560975611</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>0.9565476179122925</v>
+        <v>0.9732142865657807</v>
       </c>
       <c r="C7">
-        <v>0.06702973231486067</v>
+        <v>0.05372003014766685</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -664,33 +664,33 @@
         <v>16</v>
       </c>
       <c r="F7">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G7">
-        <v>0.9421992481203008</v>
+        <v>0.9681165277950503</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0.9166666666666667</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J7">
-        <v>0.9047619047619049</v>
+        <v>0.9545454545454545</v>
       </c>
       <c r="K7">
-        <v>0.9473684210526315</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>0.9565476179122925</v>
+        <v>0.9714285731315613</v>
       </c>
       <c r="C8">
-        <v>0.06702973231486067</v>
+        <v>0.08571428060531616</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -699,22 +699,22 @@
         <v>16</v>
       </c>
       <c r="F8">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G8">
-        <v>0.9421992481203008</v>
+        <v>0.9681165277950503</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.9166666666666667</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J8">
-        <v>0.9047619047619049</v>
+        <v>0.9545454545454545</v>
       </c>
       <c r="K8">
-        <v>0.9473684210526315</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,13 +722,13 @@
         <v>62</v>
       </c>
       <c r="B9">
-        <v>0.9482142865657807</v>
+        <v>0.9714285731315613</v>
       </c>
       <c r="C9">
-        <v>0.115851439211411</v>
+        <v>0.08571428060531616</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -737,33 +737,33 @@
         <v>700</v>
       </c>
       <c r="G9">
-        <v>0.8944139194139195</v>
+        <v>0.9681165277950503</v>
       </c>
       <c r="H9">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.8461538461538461</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J9">
-        <v>0.8999999999999999</v>
+        <v>0.9545454545454545</v>
       </c>
       <c r="K9">
-        <v>0.9743589743589745</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>0.9482142865657807</v>
+        <v>0.9690476179122924</v>
       </c>
       <c r="C10">
-        <v>0.115851439211411</v>
+        <v>0.06213328066660062</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -772,30 +772,30 @@
         <v>600</v>
       </c>
       <c r="G10">
-        <v>0.8944139194139195</v>
+        <v>0.9683269914540578</v>
       </c>
       <c r="H10">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.8461538461538461</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J10">
-        <v>0.8999999999999999</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K10">
-        <v>0.9743589743589745</v>
+        <v>0.9756097560975611</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>0.9440476179122925</v>
+        <v>0.9690476179122924</v>
       </c>
       <c r="C11">
-        <v>0.08909503612440589</v>
+        <v>0.06213328066660062</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -804,33 +804,33 @@
         <v>16</v>
       </c>
       <c r="F11">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G11">
-        <v>0.9095827749486287</v>
+        <v>0.9683269914540578</v>
       </c>
       <c r="H11">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.8800000000000001</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J11">
-        <v>0.9268292682926829</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K11">
-        <v>0.9743589743589745</v>
+        <v>0.9756097560975611</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B12">
-        <v>0.9440476179122925</v>
+        <v>0.9690476179122924</v>
       </c>
       <c r="C12">
-        <v>0.08909503612440589</v>
+        <v>0.06213328066660062</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -839,176 +839,176 @@
         <v>16</v>
       </c>
       <c r="F12">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G12">
-        <v>0.9095827749486287</v>
+        <v>0.9683269914540578</v>
       </c>
       <c r="H12">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0.8800000000000001</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J12">
-        <v>0.9268292682926829</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K12">
-        <v>0.9743589743589745</v>
+        <v>0.9756097560975611</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>0.9440476179122925</v>
+        <v>0.9657142877578735</v>
       </c>
       <c r="C13">
-        <v>0.08909503612440589</v>
+        <v>0.0697517422180931</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G13">
-        <v>0.9095827749486287</v>
+        <v>0.9125</v>
       </c>
       <c r="H13">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0.8800000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="J13">
-        <v>0.9268292682926829</v>
+        <v>0.875</v>
       </c>
       <c r="K13">
-        <v>0.9743589743589745</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9440476179122925</v>
+        <v>0.9633333325386048</v>
       </c>
       <c r="C14">
-        <v>0.08909503612440589</v>
+        <v>0.07371114882085317</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G14">
-        <v>0.9095827749486287</v>
+        <v>0.9397727272727273</v>
       </c>
       <c r="H14">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.8800000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J14">
-        <v>0.9268292682926829</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="K14">
-        <v>0.9743589743589745</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>0.9365476191043853</v>
+        <v>0.9607142865657806</v>
       </c>
       <c r="C15">
-        <v>0.07971756020563286</v>
+        <v>0.08214285606923315</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G15">
-        <v>0.9421992481203008</v>
+        <v>0.9489664082687338</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9166666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J15">
-        <v>0.9047619047619049</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="K15">
-        <v>0.9473684210526315</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>0.9357142865657806</v>
+        <v>0.9607142865657806</v>
       </c>
       <c r="C16">
-        <v>0.1513544288466637</v>
+        <v>0.08214285606923315</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G16">
-        <v>0.8944139194139195</v>
+        <v>0.9489664082687338</v>
       </c>
       <c r="H16">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J16">
-        <v>0.8999999999999999</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="K16">
-        <v>0.9743589743589745</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>0.9315476179122925</v>
+        <v>0.9589285731315613</v>
       </c>
       <c r="C17">
-        <v>0.1191443070810205</v>
+        <v>0.08965992542923461</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -1017,660 +1017,660 @@
         <v>800</v>
       </c>
       <c r="G17">
-        <v>0.8944139194139195</v>
+        <v>0.9489664082687338</v>
       </c>
       <c r="H17">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J17">
-        <v>0.8999999999999999</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="K17">
-        <v>0.9743589743589745</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18">
-        <v>0.9297619044780732</v>
+        <v>0.9565476179122925</v>
       </c>
       <c r="C18">
-        <v>0.1107142841303223</v>
+        <v>0.06702973231486067</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G18">
-        <v>0.8535021888680425</v>
+        <v>0.9195408103149354</v>
       </c>
       <c r="H18">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I18">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J18">
-        <v>0.9268292682926829</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K18">
-        <v>0.9743589743589745</v>
+        <v>0.9756097560975611</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B19">
-        <v>0.9297619044780732</v>
+        <v>0.9565476179122925</v>
       </c>
       <c r="C19">
-        <v>0.1107142841303223</v>
+        <v>0.06702973231486067</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G19">
-        <v>0.8535021888680425</v>
+        <v>0.9683269914540578</v>
       </c>
       <c r="H19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0.8461538461538461</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J19">
-        <v>0.9268292682926829</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K19">
-        <v>0.9743589743589745</v>
+        <v>0.9756097560975611</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>0.9214285731315612</v>
+        <v>0.9508333325386047</v>
       </c>
       <c r="C20">
-        <v>0.1642857121384663</v>
+        <v>0.0769604883947281</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G20">
-        <v>0.8535021888680425</v>
+        <v>0.9397727272727273</v>
       </c>
       <c r="H20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0.8461538461538461</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J20">
-        <v>0.9268292682926829</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="K20">
-        <v>0.9743589743589745</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>0.9165476202964783</v>
+        <v>0.9508333325386047</v>
       </c>
       <c r="C21">
-        <v>0.08612080986290682</v>
+        <v>0.0769604883947281</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G21">
-        <v>0.8799273581882278</v>
+        <v>0.9397727272727273</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.7826086956521739</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J21">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="K21">
-        <v>0.9189189189189189</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B22">
-        <v>0.9066666662693024</v>
+        <v>0.9490476191043854</v>
       </c>
       <c r="C22">
-        <v>0.1297861445248752</v>
+        <v>0.07888250076873238</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G22">
-        <v>0.8851010101010102</v>
+        <v>0.9261517615176151</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>0.8888888888888888</v>
-      </c>
-      <c r="I22">
-        <v>0.8181818181818182</v>
       </c>
       <c r="J22">
         <v>0.8888888888888888</v>
       </c>
       <c r="K22">
-        <v>0.9444444444444444</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B23">
-        <v>0.9066666662693024</v>
+        <v>0.9490476191043854</v>
       </c>
       <c r="C23">
-        <v>0.1297861445248752</v>
+        <v>0.07888250076873238</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23">
         <v>600</v>
       </c>
       <c r="G23">
-        <v>0.8851010101010102</v>
+        <v>0.9261517615176151</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>0.8888888888888888</v>
-      </c>
-      <c r="I23">
-        <v>0.8181818181818182</v>
       </c>
       <c r="J23">
         <v>0.8888888888888888</v>
       </c>
       <c r="K23">
-        <v>0.9444444444444444</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B24">
-        <v>0.9005952417850495</v>
+        <v>0.9490476191043854</v>
       </c>
       <c r="C24">
-        <v>0.1531521079312202</v>
+        <v>0.07888250076873238</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F24">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G24">
-        <v>0.8535021888680425</v>
+        <v>0.9561318695028382</v>
       </c>
       <c r="H24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0.8461538461538461</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J24">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="K24">
         <v>0.9268292682926829</v>
-      </c>
-      <c r="K24">
-        <v>0.9743589743589745</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B25">
-        <v>0.8983333349227905</v>
+        <v>0.9490476191043854</v>
       </c>
       <c r="C25">
-        <v>0.1367174651167306</v>
+        <v>0.07888250076873238</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G25">
-        <v>0.8851010101010102</v>
+        <v>0.9561318695028382</v>
       </c>
       <c r="H25">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0.8181818181818182</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J25">
-        <v>0.8888888888888888</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K25">
-        <v>0.9444444444444444</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>0.8983333349227905</v>
+        <v>0.9365476191043853</v>
       </c>
       <c r="C26">
-        <v>0.1367174651167306</v>
+        <v>0.07971756020563286</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G26">
-        <v>0.8717017412669588</v>
+        <v>0.9397727272727273</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0.6956521739130435</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J26">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="K26">
-        <v>0.972972972972973</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="B27">
-        <v>0.8965476214885711</v>
+        <v>0.9365476191043853</v>
       </c>
       <c r="C27">
-        <v>0.1252146058550692</v>
+        <v>0.07971756020563286</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>500</v>
       </c>
       <c r="G27">
-        <v>0.8323553649640606</v>
+        <v>0.9561318695028382</v>
       </c>
       <c r="H27">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0.7272727272727273</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J27">
-        <v>0.826086956521739</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K27">
-        <v>0.9189189189189189</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B28">
-        <v>0.8965476214885711</v>
+        <v>0.9365476191043853</v>
       </c>
       <c r="C28">
-        <v>0.08762818309833104</v>
+        <v>0.07971756020563286</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G28">
-        <v>0.8788023570632265</v>
+        <v>0.9561318695028382</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0.7826086956521739</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J28">
-        <v>0.8095238095238095</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="K28">
-        <v>0.9230769230769229</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B29">
-        <v>0.8866666674613952</v>
+        <v>0.934761905670166</v>
       </c>
       <c r="C29">
-        <v>0.1571976742865498</v>
+        <v>0.1033684349519311</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G29">
-        <v>0.8851010101010102</v>
+        <v>0.9261517615176151</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>0.8888888888888888</v>
-      </c>
-      <c r="I29">
-        <v>0.8181818181818182</v>
       </c>
       <c r="J29">
         <v>0.8888888888888888</v>
       </c>
       <c r="K29">
-        <v>0.9444444444444444</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B30">
-        <v>0.8840476214885712</v>
+        <v>0.9332142889499664</v>
       </c>
       <c r="C30">
-        <v>0.1327540509990359</v>
+        <v>0.08451617554713116</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G30">
-        <v>0.8799273581882278</v>
+        <v>0.8865440115440115</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0.7826086956521739</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J30">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="K30">
-        <v>0.9189189189189189</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B31">
-        <v>0.8816666662693023</v>
+        <v>0.9332142889499664</v>
       </c>
       <c r="C31">
-        <v>0.1334270460742383</v>
+        <v>0.08451617554713116</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G31">
-        <v>0.847257591938443</v>
+        <v>0.8865440115440115</v>
       </c>
       <c r="H31">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0.7619047619047619</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J31">
-        <v>0.851063829787234</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="K31">
-        <v>0.9189189189189189</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B32">
-        <v>0.8816666662693023</v>
+        <v>0.9332142889499664</v>
       </c>
       <c r="C32">
-        <v>0.1334270460742383</v>
+        <v>0.08451617554713116</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>600</v>
       </c>
       <c r="G32">
-        <v>0.847257591938443</v>
+        <v>0.8865440115440115</v>
       </c>
       <c r="H32">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0.7619047619047619</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J32">
-        <v>0.851063829787234</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="K32">
-        <v>0.9189189189189189</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B33">
-        <v>0.8808333337306976</v>
+        <v>0.9321428596973419</v>
       </c>
       <c r="C33">
-        <v>0.1299599289651933</v>
+        <v>0.141466438631792</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33">
         <v>500</v>
       </c>
       <c r="G33">
-        <v>0.8479301451302675</v>
+        <v>0.8756546096699551</v>
       </c>
       <c r="H33">
         <v>0.8571428571428572</v>
       </c>
       <c r="I33">
-        <v>0.75</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J33">
-        <v>0.8372093023255814</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="K33">
-        <v>0.9473684210526315</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>0.8790476202964783</v>
+        <v>0.9321428596973419</v>
       </c>
       <c r="C34">
-        <v>0.1033881783071876</v>
+        <v>0.141466438631792</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G34">
-        <v>0.8418329043329044</v>
+        <v>0.8865763359607409</v>
       </c>
       <c r="H34">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="I34">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="J34">
         <v>0.8888888888888888</v>
       </c>
-      <c r="I34">
-        <v>0.75</v>
-      </c>
-      <c r="J34">
-        <v>0.8095238095238095</v>
-      </c>
       <c r="K34">
-        <v>0.9189189189189189</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>0.8730952382087708</v>
+        <v>0.9321428596973419</v>
       </c>
       <c r="C35">
-        <v>0.1089219982103055</v>
+        <v>0.141466438631792</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
       </c>
       <c r="F35">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G35">
-        <v>0.7600932443679554</v>
+        <v>0.8865763359607409</v>
       </c>
       <c r="H35">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I35">
-        <v>0.6923076923076923</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J35">
-        <v>0.8292682926829267</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K35">
-        <v>0.9473684210526315</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>0.8730952382087708</v>
+        <v>0.9321428596973419</v>
       </c>
       <c r="C36">
-        <v>0.1089219982103055</v>
+        <v>0.141466438631792</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -1679,267 +1679,267 @@
         <v>16</v>
       </c>
       <c r="F36">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G36">
-        <v>0.7600932443679554</v>
+        <v>0.8756546096699551</v>
       </c>
       <c r="H36">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I36">
-        <v>0.6923076923076923</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J36">
-        <v>0.8292682926829267</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="K36">
-        <v>0.9473684210526315</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="B37">
-        <v>0.8715476214885711</v>
+        <v>0.9321428596973419</v>
       </c>
       <c r="C37">
-        <v>0.149603070135171</v>
+        <v>0.141466438631792</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G37">
-        <v>0.8323553649640606</v>
+        <v>0.8756546096699551</v>
       </c>
       <c r="H37">
         <v>0.8571428571428572</v>
       </c>
       <c r="I37">
-        <v>0.7272727272727273</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J37">
-        <v>0.826086956521739</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="K37">
-        <v>0.9189189189189189</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>0.8697619080543518</v>
+        <v>0.9321428596973419</v>
       </c>
       <c r="C38">
-        <v>0.1422289696060836</v>
+        <v>0.141466438631792</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G38">
-        <v>0.7796532027743779</v>
+        <v>0.8865763359607409</v>
       </c>
       <c r="H38">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I38">
-        <v>0.72</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J38">
-        <v>0.8372093023255814</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K38">
-        <v>0.8947368421052632</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>0.867380952835083</v>
+        <v>0.9321428596973419</v>
       </c>
       <c r="C39">
-        <v>0.127509054220606</v>
+        <v>0.141466438631792</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>800</v>
       </c>
       <c r="G39">
-        <v>0.847257591938443</v>
+        <v>0.8865763359607409</v>
       </c>
       <c r="H39">
         <v>0.8571428571428572</v>
       </c>
       <c r="I39">
-        <v>0.7619047619047619</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J39">
-        <v>0.851063829787234</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K39">
-        <v>0.9189189189189189</v>
+        <v>0.9767441860465117</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.8665476202964782</v>
+        <v>0.9314285755157471</v>
       </c>
       <c r="C40">
-        <v>0.1237802727460672</v>
+        <v>0.1070571021628716</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>500</v>
       </c>
       <c r="G40">
-        <v>0.8418329043329044</v>
+        <v>0.893648310387985</v>
       </c>
       <c r="H40">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0.75</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J40">
-        <v>0.8095238095238095</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K40">
-        <v>0.9189189189189189</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>0.8665476202964782</v>
+        <v>0.9290476202964782</v>
       </c>
       <c r="C41">
-        <v>0.1237802727460672</v>
+        <v>0.08822898267593815</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41">
         <v>600</v>
       </c>
       <c r="G41">
-        <v>0.8479301451302675</v>
+        <v>0.9125</v>
       </c>
       <c r="H41">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="J41">
-        <v>0.8372093023255814</v>
+        <v>0.875</v>
       </c>
       <c r="K41">
-        <v>0.9473684210526315</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>0.8658333361148834</v>
+        <v>0.9290476202964782</v>
       </c>
       <c r="C42">
-        <v>0.1288005507789735</v>
+        <v>0.08822898267593815</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>700</v>
       </c>
       <c r="G42">
-        <v>0.8717017412669588</v>
+        <v>0.9125</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0.6956521739130435</v>
+        <v>0.875</v>
       </c>
       <c r="J42">
-        <v>0.8181818181818182</v>
+        <v>0.875</v>
       </c>
       <c r="K42">
-        <v>0.972972972972973</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B43">
-        <v>0.8658333361148834</v>
+        <v>0.922261905670166</v>
       </c>
       <c r="C43">
-        <v>0.1288005507789735</v>
+        <v>0.1022757595237784</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G43">
-        <v>0.8717017412669588</v>
+        <v>0.8849206349206349</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I43">
-        <v>0.6956521739130435</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J43">
-        <v>0.8181818181818182</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K43">
-        <v>0.972972972972973</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1947,150 +1947,150 @@
         <v>75</v>
       </c>
       <c r="B44">
-        <v>0.864047622680664</v>
+        <v>0.922261905670166</v>
       </c>
       <c r="C44">
-        <v>0.1567977736124521</v>
+        <v>0.1022757595237784</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44">
         <v>800</v>
       </c>
       <c r="G44">
-        <v>0.8799273581882278</v>
+        <v>0.9261517615176151</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0.7826086956521739</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J44">
-        <v>0.8181818181818182</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K44">
-        <v>0.9189189189189189</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B45">
-        <v>0.864047622680664</v>
+        <v>0.922261905670166</v>
       </c>
       <c r="C45">
-        <v>0.1567977736124521</v>
+        <v>0.1022757595237784</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G45">
-        <v>0.8799273581882278</v>
+        <v>0.8849206349206349</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I45">
-        <v>0.7826086956521739</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J45">
-        <v>0.8181818181818182</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K45">
-        <v>0.9189189189189189</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B46">
-        <v>0.8623809576034546</v>
+        <v>0.9198809564113617</v>
       </c>
       <c r="C46">
-        <v>0.1212968428525384</v>
+        <v>0.1108844635078088</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G46">
-        <v>0.8479301451302675</v>
+        <v>0.8407498702646601</v>
       </c>
       <c r="H46">
-        <v>0.8571428571428572</v>
+        <v>0.75</v>
       </c>
       <c r="I46">
-        <v>0.75</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="J46">
-        <v>0.8372093023255814</v>
+        <v>0.9361702127659574</v>
       </c>
       <c r="K46">
-        <v>0.9473684210526315</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B47">
-        <v>0.8623809576034546</v>
+        <v>0.9165476202964783</v>
       </c>
       <c r="C47">
-        <v>0.1212968428525384</v>
+        <v>0.08612080986290682</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G47">
-        <v>0.8479301451302675</v>
+        <v>0.896031746031746</v>
       </c>
       <c r="H47">
         <v>0.8571428571428572</v>
       </c>
       <c r="I47">
-        <v>0.75</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J47">
-        <v>0.8372093023255814</v>
+        <v>0.9333333333333331</v>
       </c>
       <c r="K47">
-        <v>0.9473684210526315</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B48">
-        <v>0.8616666674613953</v>
+        <v>0.9165476202964783</v>
       </c>
       <c r="C48">
-        <v>0.1570650889732341</v>
+        <v>0.08612080986290682</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2099,243 +2099,243 @@
         <v>19</v>
       </c>
       <c r="F48">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48">
-        <v>0.847257591938443</v>
+        <v>0.896031746031746</v>
       </c>
       <c r="H48">
         <v>0.8571428571428572</v>
       </c>
       <c r="I48">
-        <v>0.7619047619047619</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J48">
-        <v>0.851063829787234</v>
+        <v>0.9333333333333331</v>
       </c>
       <c r="K48">
-        <v>0.9189189189189189</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B49">
-        <v>0.8605952382087707</v>
+        <v>0.9165476202964783</v>
       </c>
       <c r="C49">
-        <v>0.1278578611167302</v>
+        <v>0.08612080986290682</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F49">
         <v>700</v>
       </c>
       <c r="G49">
-        <v>0.7600932443679554</v>
+        <v>0.896031746031746</v>
       </c>
       <c r="H49">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I49">
-        <v>0.6923076923076923</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J49">
-        <v>0.8292682926829267</v>
+        <v>0.9333333333333331</v>
       </c>
       <c r="K49">
-        <v>0.9473684210526315</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B50">
-        <v>0.8598809540271759</v>
+        <v>0.9165476202964783</v>
       </c>
       <c r="C50">
-        <v>0.1162992822763425</v>
+        <v>0.08612080986290682</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G50">
-        <v>0.8788023570632265</v>
+        <v>0.896031746031746</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I50">
-        <v>0.7826086956521739</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J50">
-        <v>0.8095238095238095</v>
+        <v>0.9333333333333331</v>
       </c>
       <c r="K50">
-        <v>0.9230769230769229</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.8598809540271759</v>
+        <v>0.9165476202964783</v>
       </c>
       <c r="C51">
-        <v>0.1162992822763425</v>
+        <v>0.08612080986290682</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G51">
-        <v>0.8788023570632265</v>
+        <v>0.9125</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>0.7826086956521739</v>
+        <v>0.875</v>
       </c>
       <c r="J51">
-        <v>0.8095238095238095</v>
+        <v>0.875</v>
       </c>
       <c r="K51">
-        <v>0.9230769230769229</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B52">
-        <v>0.8598809540271759</v>
+        <v>0.9154761910438538</v>
       </c>
       <c r="C52">
-        <v>0.1162992822763425</v>
+        <v>0.1423054774378475</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F52">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G52">
-        <v>0.8788023570632265</v>
+        <v>0.8756546096699551</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I52">
-        <v>0.7826086956521739</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J52">
-        <v>0.8095238095238095</v>
+        <v>0.8695652173913044</v>
       </c>
       <c r="K52">
-        <v>0.9230769230769229</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>0.8590476214885712</v>
+        <v>0.9147619068622589</v>
       </c>
       <c r="C53">
-        <v>0.1321023055479471</v>
+        <v>0.1080532706474198</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G53">
-        <v>0.8418329043329044</v>
+        <v>0.9238615723923196</v>
       </c>
       <c r="H53">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="J53">
-        <v>0.8095238095238095</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="K53">
-        <v>0.9189189189189189</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B54">
-        <v>0.8572619080543518</v>
+        <v>0.9147619068622589</v>
       </c>
       <c r="C54">
-        <v>0.1569374955087758</v>
+        <v>0.1080532706474198</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G54">
-        <v>0.7437989937989938</v>
+        <v>0.9238615723923196</v>
       </c>
       <c r="H54">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="J54">
-        <v>0.8181818181818182</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="K54">
-        <v>0.9189189189189189</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>0.854880952835083</v>
+        <v>0.9147619068622589</v>
       </c>
       <c r="C55">
-        <v>0.143524676376958</v>
+        <v>0.1080532706474198</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -2344,33 +2344,33 @@
         <v>17</v>
       </c>
       <c r="F55">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G55">
-        <v>0.8323553649640606</v>
+        <v>0.9238615723923196</v>
       </c>
       <c r="H55">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0.7272727272727273</v>
+        <v>0.875</v>
       </c>
       <c r="J55">
-        <v>0.826086956521739</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="K55">
-        <v>0.9189189189189189</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>0.854880952835083</v>
+        <v>0.9147619068622589</v>
       </c>
       <c r="C56">
-        <v>0.143524676376958</v>
+        <v>0.1080532706474198</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -2382,573 +2382,579 @@
         <v>700</v>
       </c>
       <c r="G56">
-        <v>0.8323553649640606</v>
+        <v>0.9238615723923196</v>
       </c>
       <c r="H56">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0.7272727272727273</v>
+        <v>0.875</v>
       </c>
       <c r="J56">
-        <v>0.826086956521739</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="K56">
-        <v>0.9189189189189189</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="B57">
-        <v>0.8530952394008636</v>
+        <v>0.9147619068622589</v>
       </c>
       <c r="C57">
-        <v>0.1356016598062628</v>
+        <v>0.1080532706474198</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G57">
-        <v>0.7999164578111947</v>
+        <v>0.893648310387985</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0.6428571428571429</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J57">
-        <v>0.8095238095238095</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K57">
-        <v>0.9473684210526315</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B58">
-        <v>0.8497619092464447</v>
+        <v>0.9040476202964782</v>
       </c>
       <c r="C58">
-        <v>0.1631550031260653</v>
+        <v>0.0993062656575853</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F58">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G58">
-        <v>0.7796532027743779</v>
+        <v>0.8696344140493077</v>
       </c>
       <c r="H58">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I58">
-        <v>0.72</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J58">
-        <v>0.8372093023255814</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="K58">
-        <v>0.8947368421052632</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B59">
-        <v>0.8497619092464447</v>
+        <v>0.9040476202964782</v>
       </c>
       <c r="C59">
-        <v>0.1631550031260653</v>
+        <v>0.0993062656575853</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F59">
         <v>600</v>
       </c>
       <c r="G59">
-        <v>0.7796532027743779</v>
+        <v>0.8696344140493077</v>
       </c>
       <c r="H59">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I59">
-        <v>0.72</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J59">
-        <v>0.8372093023255814</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="K59">
-        <v>0.8947368421052632</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B60">
-        <v>0.8491666674613952</v>
+        <v>0.9040476202964782</v>
       </c>
       <c r="C60">
-        <v>0.1209022738180681</v>
+        <v>0.0993062656575853</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
       </c>
       <c r="F60">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G60">
-        <v>0.8717017412669588</v>
+        <v>0.8696344140493077</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I60">
-        <v>0.6956521739130435</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J60">
-        <v>0.8181818181818182</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="K60">
-        <v>0.972972972972973</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="B61">
-        <v>0.8480952382087708</v>
+        <v>0.9040476202964782</v>
       </c>
       <c r="C61">
-        <v>0.1537652873849112</v>
+        <v>0.0993062656575853</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F61">
         <v>800</v>
       </c>
       <c r="G61">
-        <v>0.7600932443679554</v>
+        <v>0.8696344140493077</v>
       </c>
       <c r="H61">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I61">
-        <v>0.6923076923076923</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J61">
-        <v>0.8292682926829267</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="K61">
-        <v>0.9473684210526315</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>0.8473809540271759</v>
+        <v>0.9022619068622589</v>
       </c>
       <c r="C62">
-        <v>0.1206391184843117</v>
+        <v>0.1046461034590444</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F62">
         <v>500</v>
       </c>
       <c r="G62">
-        <v>0.8277095277095277</v>
+        <v>0.8460317460317461</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I62">
-        <v>0.6363636363636364</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J62">
-        <v>0.7555555555555554</v>
+        <v>0.8444444444444446</v>
       </c>
       <c r="K62">
-        <v>0.9189189189189189</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>0.8432142913341523</v>
+        <v>0.9022619068622589</v>
       </c>
       <c r="C63">
-        <v>0.1300401592085558</v>
+        <v>0.1046461034590444</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F63">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G63">
-        <v>0.8292397660818713</v>
+        <v>0.8460317460317461</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I63">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J63">
-        <v>0.7555555555555554</v>
+        <v>0.8444444444444446</v>
       </c>
       <c r="K63">
-        <v>0.8947368421052632</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B64">
-        <v>0.8405952394008637</v>
+        <v>0.9022619068622589</v>
       </c>
       <c r="C64">
-        <v>0.1495708565437633</v>
+        <v>0.1046461034590444</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
       </c>
       <c r="F64">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G64">
-        <v>0.7999164578111947</v>
+        <v>0.8849206349206349</v>
+      </c>
+      <c r="H64">
+        <v>0.8571428571428572</v>
       </c>
       <c r="I64">
-        <v>0.6428571428571429</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J64">
-        <v>0.8095238095238095</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K64">
-        <v>0.9473684210526315</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B65">
-        <v>0.8372619092464447</v>
+        <v>0.9022619068622589</v>
       </c>
       <c r="C65">
-        <v>0.174699321052566</v>
+        <v>0.1046461034590444</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
       </c>
       <c r="F65">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G65">
-        <v>0.7437989937989938</v>
+        <v>0.8849206349206349</v>
       </c>
       <c r="H65">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I65">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J65">
-        <v>0.8181818181818182</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="K65">
-        <v>0.9189189189189189</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B66">
-        <v>0.8348809540271759</v>
+        <v>0.8998809576034545</v>
       </c>
       <c r="C66">
-        <v>0.1419315673332642</v>
+        <v>0.112652573276132</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66">
         <v>800</v>
       </c>
       <c r="G66">
-        <v>0.8418329043329044</v>
+        <v>0.8407498702646601</v>
       </c>
       <c r="H66">
-        <v>0.8888888888888888</v>
+        <v>0.75</v>
       </c>
       <c r="I66">
-        <v>0.75</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="J66">
-        <v>0.8095238095238095</v>
+        <v>0.9361702127659574</v>
       </c>
       <c r="K66">
-        <v>0.9189189189189189</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B67">
-        <v>0.8348809540271759</v>
+        <v>0.8998809576034545</v>
       </c>
       <c r="C67">
-        <v>0.1356265857394899</v>
+        <v>0.112652573276132</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67">
         <v>600</v>
       </c>
       <c r="G67">
-        <v>0.7783619485747145</v>
+        <v>0.9125</v>
       </c>
       <c r="H67">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0.5714285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="J67">
-        <v>0.7659574468085107</v>
+        <v>0.875</v>
       </c>
       <c r="K67">
-        <v>0.9189189189189189</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B68">
-        <v>0.8347619056701661</v>
+        <v>0.8998809576034545</v>
       </c>
       <c r="C68">
-        <v>0.1940036455287498</v>
+        <v>0.112652573276132</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
         <v>17</v>
       </c>
       <c r="F68">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G68">
-        <v>0.7425247902364608</v>
+        <v>0.8407498702646601</v>
       </c>
       <c r="H68">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="I68">
-        <v>0.6086956521739131</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="J68">
-        <v>0.8</v>
+        <v>0.9361702127659574</v>
       </c>
       <c r="K68">
-        <v>0.8947368421052632</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B69">
-        <v>0.8330952405929566</v>
+        <v>0.8998809576034545</v>
       </c>
       <c r="C69">
-        <v>0.1552791637202767</v>
+        <v>0.112652573276132</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F69">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G69">
-        <v>0.7796532027743779</v>
+        <v>0.8407498702646601</v>
       </c>
       <c r="H69">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="I69">
-        <v>0.72</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="J69">
-        <v>0.8372093023255814</v>
+        <v>0.9361702127659574</v>
       </c>
       <c r="K69">
-        <v>0.8947368421052632</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B70">
-        <v>0.8325000047683716</v>
+        <v>0.8980952441692353</v>
       </c>
       <c r="C70">
-        <v>0.1545805193515558</v>
+        <v>0.1299607398599548</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F70">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G70">
-        <v>0.8145933014354066</v>
+        <v>0.9125</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>0.6363636363636364</v>
+        <v>0.875</v>
       </c>
       <c r="J70">
-        <v>0.7272727272727273</v>
+        <v>0.875</v>
       </c>
       <c r="K70">
-        <v>0.8947368421052632</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B71">
-        <v>0.8325000047683716</v>
+        <v>0.8980952441692353</v>
       </c>
       <c r="C71">
-        <v>0.1328349990138018</v>
+        <v>0.1299607398599548</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F71">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G71">
-        <v>0.8403508771929825</v>
+        <v>0.9125</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="J71">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="K71">
-        <v>0.8947368421052632</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B72">
-        <v>0.8307142913341522</v>
+        <v>0.8980952441692353</v>
       </c>
       <c r="C72">
-        <v>0.1323708815802793</v>
+        <v>0.1299607398599548</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F72">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G72">
-        <v>0.7987585270193965</v>
+        <v>0.9125</v>
       </c>
       <c r="H72">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0.6363636363636364</v>
+        <v>0.875</v>
       </c>
       <c r="J72">
-        <v>0.7826086956521739</v>
+        <v>0.875</v>
       </c>
       <c r="K72">
-        <v>0.9189189189189189</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,22 +2962,22 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.8275000035762787</v>
+        <v>0.8897619068622589</v>
       </c>
       <c r="C73">
-        <v>0.1282385980503524</v>
+        <v>0.1141867095625296</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F73">
         <v>500</v>
       </c>
       <c r="G73">
-        <v>0.8403508771929825</v>
+        <v>0.8559523809523809</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -2980,21 +2986,21 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="J73">
-        <v>0.8</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K73">
-        <v>0.8947368421052632</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B74">
-        <v>0.8273809552192688</v>
+        <v>0.8855952441692352</v>
       </c>
       <c r="C74">
-        <v>0.141594611658789</v>
+        <v>0.1254927289095975</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -3003,33 +3009,33 @@
         <v>17</v>
       </c>
       <c r="F74">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G74">
-        <v>0.8277095277095277</v>
+        <v>0.893648310387985</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0.6363636363636364</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J74">
-        <v>0.7555555555555554</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K74">
-        <v>0.9189189189189189</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B75">
-        <v>0.8273809552192688</v>
+        <v>0.8855952441692352</v>
       </c>
       <c r="C75">
-        <v>0.141594611658789</v>
+        <v>0.1254927289095975</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -3038,453 +3044,450 @@
         <v>17</v>
       </c>
       <c r="F75">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G75">
-        <v>0.8277095277095277</v>
+        <v>0.893648310387985</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0.6363636363636364</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J75">
-        <v>0.7555555555555554</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K75">
-        <v>0.9189189189189189</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B76">
-        <v>0.8250000059604645</v>
+        <v>0.8855952441692352</v>
       </c>
       <c r="C76">
-        <v>0.1597306671282737</v>
+        <v>0.1254927289095975</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
       </c>
       <c r="F76">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G76">
-        <v>0.8145933014354066</v>
+        <v>0.8347640929825447</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I76">
-        <v>0.6363636363636364</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J76">
-        <v>0.7272727272727273</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K76">
-        <v>0.8947368421052632</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B77">
-        <v>0.8239285767078399</v>
+        <v>0.8855952441692352</v>
       </c>
       <c r="C77">
-        <v>0.1373444723142793</v>
+        <v>0.1254927289095975</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
         <v>20</v>
       </c>
       <c r="F77">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G77">
-        <v>0.8248020748020748</v>
+        <v>0.893648310387985</v>
       </c>
       <c r="H77">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0.7272727272727273</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J77">
-        <v>0.8181818181818182</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K77">
-        <v>0.8648648648648649</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B78">
-        <v>0.8232142925262451</v>
+        <v>0.8840476214885712</v>
       </c>
       <c r="C78">
-        <v>0.1491275080303133</v>
+        <v>0.09810014786089219</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F78">
         <v>600</v>
       </c>
       <c r="G78">
-        <v>0.8292397660818713</v>
+        <v>0.8358112475759535</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I78">
-        <v>0.6666666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J78">
-        <v>0.7555555555555554</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K78">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769229</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B79">
-        <v>0.8223809540271759</v>
+        <v>0.8838095307350159</v>
       </c>
       <c r="C79">
-        <v>0.1120171621227327</v>
+        <v>0.1548490504784875</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
         <v>20</v>
       </c>
       <c r="F79">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G79">
-        <v>0.7933038628690803</v>
+        <v>0.893648310387985</v>
       </c>
       <c r="H79">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>0.6956521739130435</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J79">
-        <v>0.7555555555555554</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K79">
-        <v>0.8648648648648649</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B80">
-        <v>0.8205952405929565</v>
+        <v>0.8838095307350159</v>
       </c>
       <c r="C80">
-        <v>0.1399830370229433</v>
+        <v>0.1548490504784875</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F80">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G80">
-        <v>0.7783619485747145</v>
+        <v>0.893648310387985</v>
       </c>
       <c r="H80">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0.5714285714285714</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J80">
-        <v>0.7659574468085107</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K80">
-        <v>0.9189189189189189</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>0.8200000047683715</v>
+        <v>0.8838095307350159</v>
       </c>
       <c r="C81">
-        <v>0.1341226568563493</v>
+        <v>0.1548490504784875</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
         <v>20</v>
       </c>
       <c r="F81">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G81">
-        <v>0.8403508771929825</v>
+        <v>0.893648310387985</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0.6666666666666666</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J81">
-        <v>0.8</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K81">
-        <v>0.8947368421052632</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B82">
-        <v>0.8182142913341522</v>
+        <v>0.8832142889499665</v>
       </c>
       <c r="C82">
-        <v>0.1212277095951835</v>
+        <v>0.1088728664577418</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F82">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G82">
-        <v>0.8403508771929825</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
+        <v>0.8634387351778656</v>
       </c>
       <c r="I82">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="J82">
-        <v>0.8</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="K82">
-        <v>0.8947368421052632</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B83">
-        <v>0.8182142913341522</v>
+        <v>0.8832142889499665</v>
       </c>
       <c r="C83">
-        <v>0.1447278742112042</v>
+        <v>0.1088728664577418</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F83">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G83">
-        <v>0.7783619485747145</v>
-      </c>
-      <c r="H83">
-        <v>0.8571428571428572</v>
+        <v>0.8634387351778656</v>
       </c>
       <c r="I83">
-        <v>0.5714285714285714</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="J83">
-        <v>0.7659574468085107</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="K83">
-        <v>0.9189189189189189</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B84">
-        <v>0.8155952394008636</v>
+        <v>0.8822619080543518</v>
       </c>
       <c r="C84">
-        <v>0.1415139678522166</v>
+        <v>0.1031565947844525</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F84">
         <v>700</v>
       </c>
       <c r="G84">
-        <v>0.7999164578111947</v>
+        <v>0.8358112475759535</v>
+      </c>
+      <c r="H84">
+        <v>0.8571428571428572</v>
       </c>
       <c r="I84">
-        <v>0.6428571428571429</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J84">
-        <v>0.8095238095238095</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K84">
-        <v>0.9473684210526315</v>
+        <v>0.9230769230769229</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B85">
-        <v>0.8148809552192688</v>
+        <v>0.8822619080543518</v>
       </c>
       <c r="C85">
-        <v>0.1529372679607067</v>
+        <v>0.1031565947844525</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F85">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G85">
-        <v>0.8277095277095277</v>
+        <v>0.8460317460317461</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I85">
-        <v>0.6363636363636364</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J85">
-        <v>0.7555555555555554</v>
+        <v>0.8444444444444446</v>
       </c>
       <c r="K85">
-        <v>0.9189189189189189</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B86">
-        <v>0.8130952417850494</v>
+        <v>0.8822619080543518</v>
       </c>
       <c r="C86">
-        <v>0.14503595512205</v>
+        <v>0.1031565947844525</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F86">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G86">
-        <v>0.7437989937989938</v>
+        <v>0.8865440115440115</v>
       </c>
       <c r="H86">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J86">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="K86">
-        <v>0.9189189189189189</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B87">
-        <v>0.8130952417850494</v>
+        <v>0.8798809587955475</v>
       </c>
       <c r="C87">
-        <v>0.14503595512205</v>
+        <v>0.1108415101819776</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F87">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G87">
-        <v>0.7437989937989938</v>
+        <v>0.8358112475759535</v>
       </c>
       <c r="H87">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I87">
-        <v>0.6666666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J87">
-        <v>0.8181818181818182</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K87">
-        <v>0.9189189189189189</v>
+        <v>0.9230769230769229</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B88">
-        <v>0.81142857670784</v>
+        <v>0.8798809587955475</v>
       </c>
       <c r="C88">
-        <v>0.1378149792039452</v>
+        <v>0.1108415101819776</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
         <v>20</v>
@@ -3493,322 +3496,316 @@
         <v>600</v>
       </c>
       <c r="G88">
-        <v>0.8248020748020748</v>
+        <v>0.8358112475759535</v>
       </c>
       <c r="H88">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I88">
-        <v>0.7272727272727273</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J88">
-        <v>0.8181818181818182</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K88">
-        <v>0.8648648648648649</v>
+        <v>0.9230769230769229</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.81142857670784</v>
+        <v>0.8713095307350158</v>
       </c>
       <c r="C89">
-        <v>0.1378149792039452</v>
+        <v>0.1499323737638558</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
         <v>20</v>
       </c>
       <c r="F89">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G89">
-        <v>0.8248020748020748</v>
+        <v>0.8347640929825447</v>
       </c>
       <c r="H89">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I89">
-        <v>0.7272727272727273</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J89">
-        <v>0.8181818181818182</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K89">
-        <v>0.8648648648648649</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B90">
-        <v>0.81142857670784</v>
+        <v>0.8707142889499664</v>
       </c>
       <c r="C90">
-        <v>0.1378149792039452</v>
+        <v>0.1160383913817941</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F90">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G90">
-        <v>0.8248020748020748</v>
-      </c>
-      <c r="H90">
-        <v>0.8888888888888888</v>
+        <v>0.8634387351778656</v>
       </c>
       <c r="I90">
         <v>0.7272727272727273</v>
       </c>
       <c r="J90">
-        <v>0.8181818181818182</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="K90">
-        <v>0.8648648648648649</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="B91">
-        <v>0.8107142925262452</v>
+        <v>0.8707142889499664</v>
       </c>
       <c r="C91">
-        <v>0.1495012406787559</v>
+        <v>0.1160383913817941</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F91">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G91">
-        <v>0.8145933014354066</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
+        <v>0.8634387351778656</v>
       </c>
       <c r="I91">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="J91">
-        <v>0.7272727272727273</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="K91">
-        <v>0.8947368421052632</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B92">
-        <v>0.8057142913341522</v>
+        <v>0.8697619080543518</v>
       </c>
       <c r="C92">
-        <v>0.1211724591524326</v>
+        <v>0.110585174182087</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F92">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G92">
-        <v>0.7987585270193965</v>
+        <v>0.8559523809523809</v>
       </c>
       <c r="H92">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J92">
-        <v>0.7826086956521739</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K92">
-        <v>0.9189189189189189</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B93">
-        <v>0.8057142913341522</v>
+        <v>0.8697619080543518</v>
       </c>
       <c r="C93">
-        <v>0.1211724591524326</v>
+        <v>0.110585174182087</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
         <v>20</v>
       </c>
       <c r="F93">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G93">
-        <v>0.7987585270193965</v>
+        <v>0.8358112475759535</v>
       </c>
       <c r="H93">
         <v>0.8571428571428572</v>
       </c>
       <c r="I93">
-        <v>0.6363636363636364</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J93">
-        <v>0.7826086956521739</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K93">
-        <v>0.9189189189189189</v>
+        <v>0.9230769230769229</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B94">
-        <v>0.8057142913341522</v>
+        <v>0.8697619080543518</v>
       </c>
       <c r="C94">
-        <v>0.1211724591524326</v>
+        <v>0.110585174182087</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F94">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G94">
-        <v>0.7987585270193965</v>
+        <v>0.8559523809523809</v>
       </c>
       <c r="H94">
-        <v>0.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J94">
-        <v>0.7826086956521739</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K94">
-        <v>0.9189189189189189</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B95">
-        <v>0.8039285778999329</v>
+        <v>0.8655952453613281</v>
       </c>
       <c r="C95">
-        <v>0.1472095347938951</v>
+        <v>0.1215410820239638</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F95">
         <v>700</v>
       </c>
       <c r="G95">
-        <v>0.7425247902364608</v>
+        <v>0.8358112475759535</v>
       </c>
       <c r="H95">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I95">
-        <v>0.6086956521739131</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J95">
-        <v>0.8</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K95">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769229</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B96">
-        <v>0.8039285778999329</v>
+        <v>0.8655952453613281</v>
       </c>
       <c r="C96">
-        <v>0.1472095347938951</v>
+        <v>0.1215410820239638</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F96">
         <v>800</v>
       </c>
       <c r="G96">
-        <v>0.7425247902364608</v>
+        <v>0.8358112475759535</v>
       </c>
       <c r="H96">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I96">
-        <v>0.6086956521739131</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J96">
-        <v>0.8</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K96">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769229</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B97">
-        <v>0.803214293718338</v>
+        <v>0.8655952453613281</v>
       </c>
       <c r="C97">
-        <v>0.1636080205584164</v>
+        <v>0.1215410820239638</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F97">
         <v>800</v>
       </c>
       <c r="G97">
-        <v>0.8292397660818713</v>
+        <v>0.8559523809523809</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -3817,123 +3814,126 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="J97">
-        <v>0.7555555555555554</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K97">
-        <v>0.8947368421052632</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B98">
-        <v>0.803214293718338</v>
+        <v>0.8655952453613281</v>
       </c>
       <c r="C98">
-        <v>0.1636080205584164</v>
+        <v>0.1215410820239638</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F98">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G98">
-        <v>0.8292397660818713</v>
+        <v>0.8358112475759535</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I98">
-        <v>0.6666666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J98">
-        <v>0.7555555555555554</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="K98">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769229</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B99">
-        <v>0.8023809552192688</v>
+        <v>0.8622619092464447</v>
       </c>
       <c r="C99">
-        <v>0.1305491547723183</v>
+        <v>0.0976307288780221</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F99">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G99">
-        <v>0.7933038628690803</v>
+        <v>0.8460317460317461</v>
       </c>
       <c r="H99">
         <v>0.8571428571428572</v>
       </c>
       <c r="I99">
-        <v>0.6956521739130435</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J99">
-        <v>0.7555555555555554</v>
+        <v>0.8444444444444446</v>
       </c>
       <c r="K99">
-        <v>0.8648648648648649</v>
+        <v>0.9047619047619049</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B100">
-        <v>0.79892857670784</v>
+        <v>0.861190477013588</v>
       </c>
       <c r="C100">
-        <v>0.1481044662077408</v>
+        <v>0.1743925300939905</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F100">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G100">
-        <v>0.7999164578111947</v>
+        <v>0.8308673469387755</v>
+      </c>
+      <c r="H100">
+        <v>0.8571428571428572</v>
       </c>
       <c r="I100">
-        <v>0.6428571428571429</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="J100">
-        <v>0.8095238095238095</v>
+        <v>0.8163265306122448</v>
       </c>
       <c r="K100">
-        <v>0.9473684210526315</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B101">
-        <v>0.7982142925262451</v>
+        <v>0.8605952441692353</v>
       </c>
       <c r="C101">
-        <v>0.1589802763793151</v>
+        <v>0.1251126980671406</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -3942,57 +3942,57 @@
         <v>19</v>
       </c>
       <c r="F101">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G101">
-        <v>0.7783619485747145</v>
+        <v>0.8347640929825447</v>
       </c>
       <c r="H101">
         <v>0.8571428571428572</v>
       </c>
       <c r="I101">
-        <v>0.5714285714285714</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J101">
-        <v>0.7659574468085107</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K101">
-        <v>0.9189189189189189</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B102">
-        <v>0.7947619080543518</v>
+        <v>0.8588095307350159</v>
       </c>
       <c r="C102">
-        <v>0.1970237701480738</v>
+        <v>0.1542520825494423</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F102">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G102">
-        <v>0.7425247902364608</v>
+        <v>0.8347640929825447</v>
       </c>
       <c r="H102">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I102">
-        <v>0.6086956521739131</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J102">
-        <v>0.8</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K102">
-        <v>0.8947368421052632</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4000,34 +4000,34 @@
         <v>79</v>
       </c>
       <c r="B103">
-        <v>0.7891666710376739</v>
+        <v>0.8588095307350159</v>
       </c>
       <c r="C103">
-        <v>0.144628344662739</v>
+        <v>0.1542520825494423</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F103">
         <v>800</v>
       </c>
       <c r="G103">
-        <v>0.809815480028246</v>
+        <v>0.8308673469387755</v>
       </c>
       <c r="H103">
         <v>0.8571428571428572</v>
       </c>
       <c r="I103">
-        <v>0.7272727272727273</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="J103">
-        <v>0.7659574468085107</v>
+        <v>0.8163265306122448</v>
       </c>
       <c r="K103">
-        <v>0.8888888888888888</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4035,118 +4035,118 @@
         <v>78</v>
       </c>
       <c r="B104">
-        <v>0.7891666710376739</v>
+        <v>0.8588095307350159</v>
       </c>
       <c r="C104">
-        <v>0.144628344662739</v>
+        <v>0.1542520825494423</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F104">
         <v>700</v>
       </c>
       <c r="G104">
-        <v>0.809815480028246</v>
+        <v>0.8308673469387755</v>
       </c>
       <c r="H104">
         <v>0.8571428571428572</v>
       </c>
       <c r="I104">
-        <v>0.7272727272727273</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="J104">
-        <v>0.7659574468085107</v>
+        <v>0.8163265306122448</v>
       </c>
       <c r="K104">
-        <v>0.8888888888888888</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B105">
-        <v>0.7880952417850494</v>
+        <v>0.8530952453613281</v>
       </c>
       <c r="C105">
-        <v>0.1315871968217948</v>
+        <v>0.1262670414383306</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
         <v>20</v>
       </c>
       <c r="F105">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G105">
-        <v>0.7933038628690803</v>
+        <v>0.7882232745199792</v>
       </c>
       <c r="H105">
-        <v>0.8571428571428572</v>
+        <v>0.75</v>
       </c>
       <c r="I105">
-        <v>0.6956521739130435</v>
+        <v>0.625</v>
       </c>
       <c r="J105">
-        <v>0.7555555555555554</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K105">
-        <v>0.8648648648648649</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B106">
-        <v>0.7857142925262451</v>
+        <v>0.8513095319271088</v>
       </c>
       <c r="C106">
-        <v>0.1516948797569445</v>
+        <v>0.1446792929535314</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F106">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G106">
-        <v>0.6651051051051051</v>
+        <v>0.8347640929825447</v>
       </c>
       <c r="H106">
-        <v>0.4</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I106">
-        <v>0.64</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J106">
-        <v>0.7555555555555554</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K106">
-        <v>0.8648648648648649</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="1">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B107">
-        <v>0.7823809564113617</v>
+        <v>0.8513095319271088</v>
       </c>
       <c r="C107">
-        <v>0.1440080522362214</v>
+        <v>0.1446792929535314</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
         <v>20</v>
@@ -4155,30 +4155,30 @@
         <v>700</v>
       </c>
       <c r="G107">
-        <v>0.7933038628690803</v>
+        <v>0.8347640929825447</v>
       </c>
       <c r="H107">
         <v>0.8571428571428572</v>
       </c>
       <c r="I107">
-        <v>0.6956521739130435</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J107">
-        <v>0.7555555555555554</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K107">
-        <v>0.8648648648648649</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="1">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B108">
-        <v>0.7782142937183381</v>
+        <v>0.8513095319271088</v>
       </c>
       <c r="C108">
-        <v>0.1501775584997976</v>
+        <v>0.1446792929535314</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -4187,421 +4187,421 @@
         <v>19</v>
       </c>
       <c r="F108">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G108">
-        <v>0.8145933014354066</v>
+        <v>0.8115637559371575</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I108">
-        <v>0.6363636363636364</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J108">
-        <v>0.7272727272727273</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K108">
-        <v>0.8947368421052632</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B109">
-        <v>0.776666671037674</v>
+        <v>0.8480952441692352</v>
       </c>
       <c r="C109">
-        <v>0.1420484947326999</v>
+        <v>0.1292258423144162</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
       </c>
       <c r="F109">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G109">
-        <v>0.809815480028246</v>
+        <v>0.8347640929825447</v>
       </c>
       <c r="H109">
         <v>0.8571428571428572</v>
       </c>
       <c r="I109">
-        <v>0.7272727272727273</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J109">
-        <v>0.7659574468085107</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K109">
-        <v>0.8888888888888888</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B110">
-        <v>0.7679761946201324</v>
+        <v>0.8480952441692352</v>
       </c>
       <c r="C110">
-        <v>0.1806172044466652</v>
+        <v>0.1292258423144162</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F110">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G110">
-        <v>0.6326497826497827</v>
+        <v>0.8347640929825447</v>
       </c>
       <c r="H110">
-        <v>0.4</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I110">
-        <v>0.5384615384615384</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="J110">
-        <v>0.7272727272727273</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K110">
-        <v>0.8648648648648649</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="1">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B111">
-        <v>0.7655952453613282</v>
+        <v>0.845595246553421</v>
       </c>
       <c r="C111">
-        <v>0.1721664390586831</v>
+        <v>0.1449001151539474</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
         <v>20</v>
       </c>
       <c r="F111">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G111">
-        <v>0.6326497826497827</v>
+        <v>0.7882232745199792</v>
       </c>
       <c r="H111">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="I111">
-        <v>0.5384615384615384</v>
+        <v>0.625</v>
       </c>
       <c r="J111">
-        <v>0.7272727272727273</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K111">
-        <v>0.8648648648648649</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B112">
-        <v>0.7623809576034546</v>
+        <v>0.8445238143205642</v>
       </c>
       <c r="C112">
-        <v>0.1250342251346228</v>
+        <v>0.1839601186599533</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F112">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G112">
-        <v>0.809815480028246</v>
+        <v>0.8308673469387755</v>
       </c>
       <c r="H112">
         <v>0.8571428571428572</v>
       </c>
       <c r="I112">
-        <v>0.7272727272727273</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="J112">
-        <v>0.7659574468085107</v>
+        <v>0.8163265306122448</v>
       </c>
       <c r="K112">
-        <v>0.8888888888888888</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B113">
-        <v>0.7613095283508301</v>
+        <v>0.8405952453613281</v>
       </c>
       <c r="C113">
-        <v>0.1525196907998538</v>
+        <v>0.1169486933985254</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
         <v>19</v>
       </c>
       <c r="F113">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G113">
-        <v>0.7257349896480331</v>
+        <v>0.8115637559371575</v>
       </c>
       <c r="H113">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I113">
-        <v>0.64</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J113">
-        <v>0.7391304347826086</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K113">
-        <v>0.8571428571428572</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B114">
-        <v>0.753214293718338</v>
+        <v>0.8405952453613281</v>
       </c>
       <c r="C114">
-        <v>0.1238507760030243</v>
+        <v>0.1411630152965793</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F114">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G114">
-        <v>0.6651051051051051</v>
+        <v>0.7882232745199792</v>
       </c>
       <c r="H114">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="I114">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="J114">
-        <v>0.7555555555555554</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K114">
-        <v>0.8648648648648649</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B115">
-        <v>0.753214293718338</v>
+        <v>0.83642857670784</v>
       </c>
       <c r="C115">
-        <v>0.1238507760030243</v>
+        <v>0.1163896069727282</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
       </c>
       <c r="F115">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G115">
-        <v>0.6651051051051051</v>
+        <v>0.7002659574468085</v>
       </c>
       <c r="H115">
         <v>0.4</v>
       </c>
       <c r="I115">
-        <v>0.64</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J115">
-        <v>0.7555555555555554</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K115">
-        <v>0.8648648648648649</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116">
-        <v>0.7479761958122253</v>
+        <v>0.83642857670784</v>
       </c>
       <c r="C116">
-        <v>0.1641390339040906</v>
+        <v>0.1163896069727282</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F116">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G116">
-        <v>0.6326497826497827</v>
+        <v>0.7002659574468085</v>
       </c>
       <c r="H116">
         <v>0.4</v>
       </c>
       <c r="I116">
-        <v>0.5384615384615384</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J116">
-        <v>0.7272727272727273</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K116">
-        <v>0.8648648648648649</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B117">
-        <v>0.745714294910431</v>
+        <v>0.833095246553421</v>
       </c>
       <c r="C117">
-        <v>0.1255726017014831</v>
+        <v>0.1471977395732106</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F117">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G117">
-        <v>0.6651051051051051</v>
+        <v>0.7882232745199792</v>
       </c>
       <c r="H117">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="I117">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="J117">
-        <v>0.7555555555555554</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K117">
-        <v>0.8648648648648649</v>
+        <v>0.9268292682926829</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B118">
-        <v>0.7430952429771424</v>
+        <v>0.8280952453613282</v>
       </c>
       <c r="C118">
-        <v>0.1377271297302886</v>
+        <v>0.1192607564190983</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E118" t="s">
         <v>19</v>
       </c>
       <c r="F118">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G118">
-        <v>0.7257349896480331</v>
+        <v>0.8115637559371575</v>
       </c>
       <c r="H118">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I118">
-        <v>0.64</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J118">
-        <v>0.7391304347826086</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K118">
-        <v>0.8571428571428572</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B119">
-        <v>0.7430952399969101</v>
+        <v>0.8280952453613282</v>
       </c>
       <c r="C119">
-        <v>0.186999364708552</v>
+        <v>0.1192607564190983</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
       </c>
       <c r="F119">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G119">
-        <v>0.7257349896480331</v>
+        <v>0.8115637559371575</v>
       </c>
       <c r="H119">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I119">
-        <v>0.64</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J119">
-        <v>0.7391304347826086</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="K119">
-        <v>0.8571428571428572</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B120">
-        <v>0.7413095265626908</v>
+        <v>0.8197619140148162</v>
       </c>
       <c r="C120">
-        <v>0.182522977958009</v>
+        <v>0.1270815283036779</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -4610,19 +4610,19 @@
         <v>700</v>
       </c>
       <c r="G120">
-        <v>0.7257349896480331</v>
+        <v>0.7002659574468085</v>
       </c>
       <c r="H120">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="I120">
-        <v>0.64</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J120">
-        <v>0.7391304347826086</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K120">
-        <v>0.8571428571428572</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4630,34 +4630,34 @@
         <v>91</v>
       </c>
       <c r="B121">
-        <v>0.7279761970043183</v>
+        <v>0.8197619140148162</v>
       </c>
       <c r="C121">
-        <v>0.1687029030618651</v>
+        <v>0.1270815283036779</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F121">
         <v>800</v>
       </c>
       <c r="G121">
-        <v>0.6326497826497827</v>
+        <v>0.7002659574468085</v>
       </c>
       <c r="H121">
         <v>0.4</v>
       </c>
       <c r="I121">
-        <v>0.5384615384615384</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J121">
-        <v>0.7272727272727273</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="K121">
-        <v>0.8648648648648649</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
